--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-6.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-6.xlsx
@@ -58,12 +58,12 @@
     <t>Extranjeros Que Ingresan O Intentan Egresar Clandestinamente</t>
   </si>
   <si>
+    <t>Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
+  </si>
+  <si>
     <t>Presunta Desgracia.</t>
   </si>
   <si>
-    <t>Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
-  </si>
-  <si>
     <t>Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
   </si>
   <si>
@@ -100,21 +100,21 @@
     <t>Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
   </si>
   <si>
+    <t>Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+  </si>
+  <si>
     <t>Presunta Desgracia Infantil.</t>
   </si>
   <si>
-    <t>Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+    <t>Violacion De Morada.</t>
+  </si>
+  <si>
+    <t>Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
   </si>
   <si>
     <t>Estafas Y Otras Defraudaciones Contra Particulares</t>
   </si>
   <si>
-    <t>Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
-  </si>
-  <si>
-    <t>Violacion De Morada.</t>
-  </si>
-  <si>
     <t>Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
   </si>
   <si>
@@ -133,31 +133,37 @@
     <t>Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
   </si>
   <si>
+    <t>Receptacion. Art. 456 Bis A.</t>
+  </si>
+  <si>
     <t>Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
   </si>
   <si>
-    <t>Receptacion. Art. 456 Bis A.</t>
-  </si>
-  <si>
     <t>Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
   </si>
   <si>
+    <t>Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
+  </si>
+  <si>
     <t>Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
   </si>
   <si>
-    <t>Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
-  </si>
-  <si>
     <t>Lesiones Graves.</t>
   </si>
   <si>
     <t>Muertes Y Hallazgo De Cadaver.</t>
   </si>
   <si>
+    <t>Apropiacion Indebida Art.470 N°1</t>
+  </si>
+  <si>
     <t>Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
   </si>
   <si>
-    <t>Apropiacion Indebida Art.470 N°1</t>
+    <t>Robo Por Sorpresa.</t>
+  </si>
+  <si>
+    <t>Robo En Lugar Habitado O Destinado A La Habitacion.</t>
   </si>
   <si>
     <t>Robo Con Intimidacion.</t>
@@ -166,166 +172,160 @@
     <t>Amenazasa Carabineros (Art. 417 Cód. J.militar).</t>
   </si>
   <si>
-    <t>Robo Por Sorpresa.</t>
-  </si>
-  <si>
-    <t>Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+    <t>Negativa A Efectuarse Examen. Art. 195 Bis Ley De Transito</t>
+  </si>
+  <si>
+    <t>Contra Salud Publica. Arts. 313 A Y 313 B</t>
+  </si>
+  <si>
+    <t>Violacion De Menor De 14 Años.</t>
   </si>
   <si>
     <t>Falsificacion O Uso Malicioso De Doc Públ Art. 193,194,196</t>
   </si>
   <si>
-    <t>Violacion De Menor De 14 Años.</t>
-  </si>
-  <si>
-    <t>Contra Salud Publica. Arts. 313 A Y 313 B</t>
-  </si>
-  <si>
-    <t>Negativa A Efectuarse Examen. Art. 195 Bis Ley De Transito</t>
-  </si>
-  <si>
     <t>Homicidio.</t>
   </si>
   <si>
+    <t>Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
+  </si>
+  <si>
+    <t>Rec Aduan Infrac. Orden. De Aduanas. Art. 182. Ley 20780</t>
+  </si>
+  <si>
     <t>Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
   </si>
   <si>
+    <t>Fingimiento De Cargos O Profesiones .Art. 213 Inc. 2.</t>
+  </si>
+  <si>
+    <t>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia</t>
+  </si>
+  <si>
     <t>Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
   </si>
   <si>
-    <t>Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
-  </si>
-  <si>
     <t>Robo En Lugar No Habitado.</t>
   </si>
   <si>
     <t>Otros Delitos Contra Las Personas</t>
   </si>
   <si>
-    <t>Abuso Sexual De 14 Años A Menor De 18 Años Con Circunstancia</t>
-  </si>
-  <si>
-    <t>Fingimiento De Cargos O Profesiones .Art. 213 Inc. 2.</t>
-  </si>
-  <si>
-    <t>Rec Aduan Infrac. Orden. De Aduanas. Art. 182. Ley 20780</t>
+    <t>Estupro.</t>
+  </si>
+  <si>
+    <t>Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
+  </si>
+  <si>
+    <t>Hallazgo De Drogas.</t>
+  </si>
+  <si>
+    <t>Hurto Agravado (Art. 447 Codigo Penal).</t>
+  </si>
+  <si>
+    <t>Abusos Contra Particulares.arts. 255.</t>
+  </si>
+  <si>
+    <t>Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+  </si>
+  <si>
+    <t>Usurpacion De Nombre.</t>
+  </si>
+  <si>
+    <t>Receptación De Vehículos Motorizados</t>
+  </si>
+  <si>
+    <t>Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+  </si>
+  <si>
+    <t>Injuria (Accion Privada).</t>
   </si>
   <si>
     <t>Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
   </si>
   <si>
+    <t>Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+  </si>
+  <si>
+    <t>Otros Delitos Contra Ley De Propiedad Industrial.</t>
+  </si>
+  <si>
+    <t>Adquisicion O Almacenamiento Material Pornografico Infantil.</t>
+  </si>
+  <si>
+    <t>Amenaza Con Arma (Falta) Art. 494 Nº 4 Codigo Penal.</t>
+  </si>
+  <si>
+    <t>Ganado Que Entra A Predio Ajeno Causando Daños</t>
+  </si>
+  <si>
+    <t>Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
+  </si>
+  <si>
+    <t>Infraccion Articulo 454 C.penal.</t>
+  </si>
+  <si>
+    <t>Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
+  </si>
+  <si>
+    <t>Conduc Bajo La Inf. Del Alcohol Art 193 Inc. 2 Ley De Trans</t>
+  </si>
+  <si>
+    <t>Calumnia (Accion Privada).</t>
+  </si>
+  <si>
+    <t>Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
+  </si>
+  <si>
+    <t>Comercio Clandestino .</t>
+  </si>
+  <si>
+    <t>Otros Delitos De La Ley 20.000.</t>
+  </si>
+  <si>
+    <t>Violación De Mayor De 14 Años.</t>
+  </si>
+  <si>
+    <t>Otros Delitos Contra La Propiedad</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Sin Contacto Art. 366 Quáter Inc. 1° Y 2</t>
+  </si>
+  <si>
+    <t>Accidente Con Resultado De Muerte O Lesiones Graves. Ley De.</t>
+  </si>
+  <si>
+    <t>Lavado De Dinero Persona Natural Art. 27 Ley 19.913</t>
+  </si>
+  <si>
+    <t>March Sit Suc Sin Prest Aux Víctima. Art 195 Inc 2° Y 3°</t>
+  </si>
+  <si>
+    <t>Hurto De Hallazgo.</t>
+  </si>
+  <si>
+    <t>Delitos Contra La Vida Y La Privacidad De Las Conversaciones</t>
+  </si>
+  <si>
+    <t>Otros Delitos Contra La Ley Del Transito.</t>
+  </si>
+  <si>
+    <t>Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+  </si>
+  <si>
+    <t>Obtención De Servicios Sexuales De Menores.</t>
+  </si>
+  <si>
+    <t>Cohecho O Soborno Cometido Por Particular. Art. 250</t>
+  </si>
+  <si>
+    <t>Otros Delit Contra Orden De Flias, Mora. Pub. Integr. Sexual</t>
+  </si>
+  <si>
+    <t>Posesión O Tenencia De Armas Prohibidas</t>
+  </si>
+  <si>
     <t>Conduc.ebriedad Resul.lesiones Grave.art.196 Inc.3Ley.trans.</t>
-  </si>
-  <si>
-    <t>Injuria (Accion Privada).</t>
-  </si>
-  <si>
-    <t>Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
-  </si>
-  <si>
-    <t>Receptación De Vehículos Motorizados</t>
-  </si>
-  <si>
-    <t>Usurpacion De Nombre.</t>
-  </si>
-  <si>
-    <t>Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
-  </si>
-  <si>
-    <t>Abusos Contra Particulares.arts. 255.</t>
-  </si>
-  <si>
-    <t>Hurto Agravado (Art. 447 Codigo Penal).</t>
-  </si>
-  <si>
-    <t>Hallazgo De Drogas.</t>
-  </si>
-  <si>
-    <t>Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
-  </si>
-  <si>
-    <t>Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
-  </si>
-  <si>
-    <t>Estupro.</t>
-  </si>
-  <si>
-    <t>Otros Delitos Contra Ley De Propiedad Industrial.</t>
-  </si>
-  <si>
-    <t>Adquisicion O Almacenamiento Material Pornografico Infantil.</t>
-  </si>
-  <si>
-    <t>Amenaza Con Arma (Falta) Art. 494 Nº 4 Codigo Penal.</t>
-  </si>
-  <si>
-    <t>Ganado Que Entra A Predio Ajeno Causando Daños</t>
-  </si>
-  <si>
-    <t>Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
-  </si>
-  <si>
-    <t>Infraccion Articulo 454 C.penal.</t>
-  </si>
-  <si>
-    <t>Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
-  </si>
-  <si>
-    <t>Conduc Bajo La Inf. Del Alcohol Art 193 Inc. 2 Ley De Trans</t>
-  </si>
-  <si>
-    <t>Calumnia (Accion Privada).</t>
-  </si>
-  <si>
-    <t>Maltrato De Obra Personal Investigaciones Con O Sin Lesiones</t>
-  </si>
-  <si>
-    <t>Comercio Clandestino .</t>
-  </si>
-  <si>
-    <t>Otros Delitos De La Ley 20.000.</t>
-  </si>
-  <si>
-    <t>Violación De Mayor De 14 Años.</t>
-  </si>
-  <si>
-    <t>Otros Delitos Contra La Propiedad</t>
-  </si>
-  <si>
-    <t>Abuso Sexual Sin Contacto Art. 366 Quáter Inc. 1° Y 2</t>
-  </si>
-  <si>
-    <t>Accidente Con Resultado De Muerte O Lesiones Graves. Ley De.</t>
-  </si>
-  <si>
-    <t>Lavado De Dinero Persona Natural Art. 27 Ley 19.913</t>
-  </si>
-  <si>
-    <t>March Sit Suc Sin Prest Aux Víctima. Art 195 Inc 2° Y 3°</t>
-  </si>
-  <si>
-    <t>Hurto De Hallazgo.</t>
-  </si>
-  <si>
-    <t>Delitos Contra La Vida Y La Privacidad De Las Conversaciones</t>
-  </si>
-  <si>
-    <t>Otros Delitos Contra La Ley Del Transito.</t>
-  </si>
-  <si>
-    <t>Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
-  </si>
-  <si>
-    <t>Obtención De Servicios Sexuales De Menores.</t>
-  </si>
-  <si>
-    <t>Cohecho O Soborno Cometido Por Particular. Art. 250</t>
-  </si>
-  <si>
-    <t>Otros Delit Contra Orden De Flias, Mora. Pub. Integr. Sexual</t>
-  </si>
-  <si>
-    <t>Posesión O Tenencia De Armas Prohibidas</t>
   </si>
   <si>
     <t>Otras Infrac A La Ordenanza Aduanas. Ley 20.780</t>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>110</v>
@@ -2544,7 +2544,7 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>110</v>
